--- a/PMP/Project Managment Document/CIL_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Project Managment Document/CIL_Travel_Advisor_Web_Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Project Managment Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE8E35A-BEF4-43F9-8FF2-8F2D018AFB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAF8555-832E-4E68-B4E8-7946325FB5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6AF4E519-3976-42C4-9D5D-055870519149}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>CONFIGURATION ITEM RECORD TEMPLATE</t>
   </si>
@@ -53,9 +53,6 @@
     <t>PMP_Travel_Advisor_Web_Application</t>
   </si>
   <si>
-    <t>Review_Templete_Travel_Advisor_Web_Application</t>
-  </si>
-  <si>
     <t>https://github.com/Mohamed-Mohsen98/Travel-Advisor-Web-Application/blob/main/Reviews/Review_Templete_Travel_Advisor_Web_Application.xlsx</t>
   </si>
   <si>
@@ -75,6 +72,15 @@
   </si>
   <si>
     <t>Relased</t>
+  </si>
+  <si>
+    <t>RT_Travel_Advisor_Web_Application</t>
+  </si>
+  <si>
+    <t>https://github.com/Mohamed-Mohsen98/Travel-Advisor-Web-Application/blob/develop/Requirments/TC_Travel_Advisor_Web_Application.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_Travel_Advisor_Web_Application </t>
   </si>
 </sst>
 </file>
@@ -85,14 +91,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -107,7 +113,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -160,15 +166,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -504,95 +511,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36047858-0A86-4756-94D1-5D91AD6804A2}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="122" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.796875" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.77734375" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="20" max="21" width="8.796875" customWidth="1"/>
+    <col min="20" max="21" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{0FE4E26E-924A-4FB7-B8A1-3BFC4009D942}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PMP/Project Managment Document/CIL_Travel_Advisor_Web_Application.xlsx
+++ b/PMP/Project Managment Document/CIL_Travel_Advisor_Web_Application.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Project Managment Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Project Managment Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAF8555-832E-4E68-B4E8-7946325FB5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65D20C8-CC0A-40D6-B140-A1AA387298A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6AF4E519-3976-42C4-9D5D-055870519149}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6AF4E519-3976-42C4-9D5D-055870519149}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>CONFIGURATION ITEM RECORD TEMPLATE</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">TC_Travel_Advisor_Web_Application </t>
+  </si>
+  <si>
+    <t>RTM_Travel_Advisor_Web_Application</t>
   </si>
 </sst>
 </file>
@@ -172,10 +175,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,36 +514,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36047858-0A86-4756-94D1-5D91AD6804A2}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="122" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="20" max="21" width="8.77734375" customWidth="1"/>
+    <col min="20" max="21" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -552,7 +555,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -563,7 +566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -574,7 +577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -585,7 +588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -596,14 +599,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -613,6 +627,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{0FE4E26E-924A-4FB7-B8A1-3BFC4009D942}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{325E5B5E-A3F1-44D7-9837-FDBDD2B2194E}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{0CC5ADB0-496A-448C-8A46-4D5DEA09EDC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
